--- a/biology/Botanique/Kunio_Iwatsuki/Kunio_Iwatsuki.xlsx
+++ b/biology/Botanique/Kunio_Iwatsuki/Kunio_Iwatsuki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kunio Iwatsuki (岩槻邦男) est un botaniste japonais né en 1934 dans la préfecture de Hyōgo.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'Université des Sciences de Kyoto, il a d'abord enseigné à l'université de Kyoto puis à l'université de Tokyo, dont il est professeur émérite, ainsi qu'au Rikkyo University College of Science.
-Depuis son départ à la retraite, Kunio Iwatsuki est actuellement le directeur du Muséum de la Nature et des activités humaines d'Hyôgo[1].
+Depuis son départ à la retraite, Kunio Iwatsuki est actuellement le directeur du Muséum de la Nature et des activités humaines d'Hyôgo.
 Il s'est spécialisé dans la systématique des fougères et plus particulièrement de la famille des Hyménophyllacées.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Takasi Yamazaki, David E Boufford and Hideaki Ohba - Flora of Japan - 8 volumes de publiés depuis 1995
 List of the type specimens in the herbaria of Japan: Lycopodiaceae, Selaginellaceae, Isoetaceae, Equisetaceae, Ophioglossaceae, Marattiaceae, Osmundaceae, ... Aspleniaceae, Blechnaceae, Lomariopsidaceae - Working Group on Determination of Types and Authentic Specimens of Vascular Plants, 1981
@@ -594,7 +610,9 @@
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fougère originaire de Sumatra, Coryphopteris iwatsukii Holtum, de la famille des Thelypteridaceae, lui a été dédiée.
 </t>
